--- a/Team-Data/2012-13/1-8-2012-13.xlsx
+++ b/Team-Data/2012-13/1-8-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="n">
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.606</v>
+        <v>0.625</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
@@ -684,70 +751,70 @@
         <v>37.2</v>
       </c>
       <c r="J2" t="n">
-        <v>81.5</v>
+        <v>81.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L2" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M2" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.379</v>
+        <v>0.377</v>
       </c>
       <c r="O2" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="P2" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.711</v>
+        <v>0.707</v>
       </c>
       <c r="R2" t="n">
         <v>9.9</v>
       </c>
       <c r="S2" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T2" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U2" t="n">
         <v>23.3</v>
       </c>
       <c r="V2" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X2" t="n">
         <v>5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
         <v>8</v>
@@ -765,7 +832,7 @@
         <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
         <v>3</v>
@@ -774,13 +841,13 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>28</v>
@@ -801,7 +868,7 @@
         <v>14</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
@@ -810,16 +877,16 @@
         <v>9</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB2" t="n">
         <v>13</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
@@ -935,16 +1002,16 @@
         <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>3</v>
       </c>
       <c r="AI3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
         <v>6</v>
@@ -995,13 +1062,13 @@
         <v>24</v>
       </c>
       <c r="BA3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB3" t="n">
         <v>21</v>
       </c>
       <c r="BC3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -1030,88 +1097,88 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
         <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>0.571</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J4" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L4" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.344</v>
+        <v>0.342</v>
       </c>
       <c r="O4" t="n">
         <v>17.9</v>
       </c>
       <c r="P4" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.743</v>
+        <v>0.74</v>
       </c>
       <c r="R4" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S4" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="T4" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U4" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="V4" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y4" t="n">
         <v>4.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.2</v>
+        <v>95.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>12</v>
@@ -1123,22 +1190,22 @@
         <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM4" t="n">
         <v>8</v>
       </c>
       <c r="AN4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
@@ -1153,10 +1220,10 @@
         <v>10</v>
       </c>
       <c r="AS4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AU4" t="n">
         <v>24</v>
@@ -1165,10 +1232,10 @@
         <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY4" t="n">
         <v>6</v>
@@ -1180,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="BB4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC4" t="n">
         <v>14</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-7.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
         <v>27</v>
       </c>
       <c r="AF5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG5" t="n">
         <v>27</v>
@@ -1305,7 +1372,7 @@
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
         <v>12</v>
@@ -1362,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BC5" t="n">
         <v>29</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>1.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>27</v>
@@ -1502,7 +1569,7 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
@@ -1523,7 +1590,7 @@
         <v>9</v>
       </c>
       <c r="AU6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV6" t="n">
         <v>15</v>
@@ -1547,7 +1614,7 @@
         <v>26</v>
       </c>
       <c r="BC6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1733,7 @@
         <v>29</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>28</v>
@@ -1684,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
         <v>21</v>
@@ -1702,16 +1769,16 @@
         <v>29</v>
       </c>
       <c r="AT7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU7" t="n">
         <v>30</v>
       </c>
       <c r="AV7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1866,7 +1933,7 @@
         <v>14</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
         <v>19</v>
@@ -1884,10 +1951,10 @@
         <v>8</v>
       </c>
       <c r="AT8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV8" t="n">
         <v>18</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2088,7 @@
         <v>2</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
         <v>15</v>
@@ -2030,7 +2097,7 @@
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
@@ -2045,10 +2112,10 @@
         <v>23</v>
       </c>
       <c r="AM9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
@@ -2066,13 +2133,13 @@
         <v>11</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW9" t="n">
         <v>11</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -2218,10 +2285,10 @@
         <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>22</v>
@@ -2233,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2242,7 +2309,7 @@
         <v>26</v>
       </c>
       <c r="AR10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS10" t="n">
         <v>13</v>
@@ -2254,7 +2321,7 @@
         <v>26</v>
       </c>
       <c r="AV10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW10" t="n">
         <v>29</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>2.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
@@ -2394,16 +2461,16 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK11" t="n">
         <v>8</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>9</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2439,7 +2506,7 @@
         <v>28</v>
       </c>
       <c r="AW11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -2486,43 +2553,43 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
         <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6</v>
+        <v>0.588</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>38.6</v>
+        <v>38.3</v>
       </c>
       <c r="J12" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.462</v>
+        <v>0.459</v>
       </c>
       <c r="L12" t="n">
         <v>9.9</v>
       </c>
       <c r="M12" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.361</v>
+        <v>0.359</v>
       </c>
       <c r="O12" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P12" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="Q12" t="n">
         <v>0.763</v>
@@ -2537,13 +2604,13 @@
         <v>43.3</v>
       </c>
       <c r="U12" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V12" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X12" t="n">
         <v>4.1</v>
@@ -2552,19 +2619,19 @@
         <v>6.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA12" t="n">
         <v>19.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.8</v>
+        <v>106.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>8</v>
@@ -2573,16 +2640,16 @@
         <v>10</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK12" t="n">
         <v>7</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2609,13 +2676,13 @@
         <v>21</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
         <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2630,10 +2697,10 @@
         <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
         <v>14</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6</v>
+        <v>0.588</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,67 +2753,67 @@
         <v>34</v>
       </c>
       <c r="J13" t="n">
-        <v>80.8</v>
+        <v>80.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.421</v>
+        <v>0.423</v>
       </c>
       <c r="L13" t="n">
         <v>6.4</v>
       </c>
       <c r="M13" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.341</v>
+        <v>0.339</v>
       </c>
       <c r="O13" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P13" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.729</v>
+        <v>0.731</v>
       </c>
       <c r="R13" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="S13" t="n">
         <v>33.3</v>
       </c>
       <c r="T13" t="n">
-        <v>46.2</v>
+        <v>46</v>
       </c>
       <c r="U13" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V13" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X13" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA13" t="n">
         <v>21.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>91.2</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
@@ -2755,10 +2822,10 @@
         <v>10</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2770,16 +2837,16 @@
         <v>28</v>
       </c>
       <c r="AL13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM13" t="n">
         <v>19</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>18</v>
       </c>
       <c r="AN13" t="n">
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP13" t="n">
         <v>11</v>
@@ -2788,19 +2855,19 @@
         <v>24</v>
       </c>
       <c r="AR13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS13" t="n">
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
         <v>28</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2821,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2961,7 +3028,7 @@
         <v>18</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>8</v>
@@ -2973,10 +3040,10 @@
         <v>17</v>
       </c>
       <c r="AS14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -2991,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ14" t="n">
         <v>25</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -3032,91 +3099,91 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" t="n">
-        <v>0.441</v>
+        <v>0.455</v>
       </c>
       <c r="H15" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I15" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J15" t="n">
-        <v>81.40000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L15" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.357</v>
+        <v>0.353</v>
       </c>
       <c r="O15" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="P15" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S15" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T15" t="n">
-        <v>45.6</v>
+        <v>45.8</v>
       </c>
       <c r="U15" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V15" t="n">
         <v>15.5</v>
       </c>
       <c r="W15" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X15" t="n">
         <v>5.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="AB15" t="n">
-        <v>103.1</v>
+        <v>102.9</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG15" t="n">
         <v>19</v>
@@ -3125,10 +3192,10 @@
         <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK15" t="n">
         <v>11</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3152,10 +3219,10 @@
         <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT15" t="n">
         <v>4</v>
@@ -3167,13 +3234,13 @@
         <v>27</v>
       </c>
       <c r="AW15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX15" t="n">
         <v>8</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>13</v>
@@ -3182,10 +3249,10 @@
         <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3359,13 @@
         <v>5.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>6</v>
       </c>
       <c r="AF16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG16" t="n">
         <v>5</v>
@@ -3313,7 +3380,7 @@
         <v>16</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,7 +3389,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO16" t="n">
         <v>13</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" t="n">
         <v>23</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>0.697</v>
+        <v>0.719</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>38.1</v>
+        <v>38.4</v>
       </c>
       <c r="J17" t="n">
-        <v>78</v>
+        <v>78.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.488</v>
+        <v>0.49</v>
       </c>
       <c r="L17" t="n">
         <v>8.5</v>
@@ -3426,16 +3493,16 @@
         <v>21.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.394</v>
+        <v>0.393</v>
       </c>
       <c r="O17" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P17" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R17" t="n">
         <v>8</v>
@@ -3444,19 +3511,19 @@
         <v>31</v>
       </c>
       <c r="T17" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="U17" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="V17" t="n">
         <v>13.8</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X17" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y17" t="n">
         <v>3.3</v>
@@ -3465,16 +3532,16 @@
         <v>18.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.2</v>
+        <v>103</v>
       </c>
       <c r="AC17" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3489,10 +3556,10 @@
         <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK17" t="n">
         <v>1</v>
@@ -3507,13 +3574,13 @@
         <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3525,31 +3592,31 @@
         <v>29</v>
       </c>
       <c r="AU17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
         <v>5</v>
       </c>
       <c r="AW17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
       </c>
       <c r="BB17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -3578,97 +3645,97 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="n">
         <v>16</v>
       </c>
       <c r="G18" t="n">
-        <v>0.515</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J18" t="n">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M18" t="n">
         <v>17.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.341</v>
+        <v>0.335</v>
       </c>
       <c r="O18" t="n">
         <v>16</v>
       </c>
       <c r="P18" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="R18" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="S18" t="n">
         <v>30.5</v>
       </c>
       <c r="T18" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U18" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V18" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W18" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="X18" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Y18" t="n">
         <v>4.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>96.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1</v>
+        <v>-1.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
         <v>13</v>
@@ -3692,19 +3759,19 @@
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ18" t="n">
         <v>18</v>
       </c>
       <c r="AR18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU18" t="n">
         <v>15</v>
@@ -3719,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="AY18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ18" t="n">
         <v>10</v>
@@ -3728,10 +3795,10 @@
         <v>15</v>
       </c>
       <c r="BB18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -3760,37 +3827,37 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" t="n">
         <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>0.516</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="J19" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L19" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M19" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.301</v>
+        <v>0.295</v>
       </c>
       <c r="O19" t="n">
         <v>18.7</v>
@@ -3799,7 +3866,7 @@
         <v>25.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.733</v>
+        <v>0.731</v>
       </c>
       <c r="R19" t="n">
         <v>13.9</v>
@@ -3808,34 +3875,34 @@
         <v>32.3</v>
       </c>
       <c r="T19" t="n">
-        <v>46.1</v>
+        <v>46.2</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="V19" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W19" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X19" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y19" t="n">
         <v>6.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA19" t="n">
         <v>23</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD19" t="n">
         <v>30</v>
@@ -3853,7 +3920,7 @@
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
         <v>14</v>
@@ -3886,16 +3953,16 @@
         <v>9</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AV19" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX19" t="n">
         <v>11</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
@@ -4035,7 +4102,7 @@
         <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -4050,7 +4117,7 @@
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
         <v>27</v>
@@ -4062,7 +4129,7 @@
         <v>9</v>
       </c>
       <c r="AR20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS20" t="n">
         <v>22</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>5.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>4</v>
@@ -4214,7 +4281,7 @@
         <v>6</v>
       </c>
       <c r="AH21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="n">
         <v>9</v>
@@ -4241,7 +4308,7 @@
         <v>22</v>
       </c>
       <c r="AQ21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR21" t="n">
         <v>22</v>
@@ -4250,7 +4317,7 @@
         <v>24</v>
       </c>
       <c r="AT21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU21" t="n">
         <v>25</v>
@@ -4268,16 +4335,16 @@
         <v>3</v>
       </c>
       <c r="AZ21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA21" t="n">
         <v>22</v>
       </c>
       <c r="BB21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4402,13 +4469,13 @@
         <v>9</v>
       </c>
       <c r="AJ22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM22" t="n">
         <v>17</v>
@@ -4432,16 +4499,16 @@
         <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>24</v>
@@ -4587,10 +4654,10 @@
         <v>15</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -4670,64 +4737,64 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>0.417</v>
+        <v>0.429</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J24" t="n">
-        <v>83.8</v>
+        <v>84</v>
       </c>
       <c r="K24" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L24" t="n">
         <v>6.6</v>
       </c>
       <c r="M24" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O24" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="P24" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.722</v>
+        <v>0.724</v>
       </c>
       <c r="R24" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S24" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="T24" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="U24" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V24" t="n">
         <v>12.8</v>
       </c>
       <c r="W24" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X24" t="n">
         <v>5.2</v>
@@ -4736,22 +4803,22 @@
         <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA24" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-4.1</v>
+        <v>-3.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF24" t="n">
         <v>20</v>
@@ -4760,16 +4827,16 @@
         <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ24" t="n">
         <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
         <v>17</v>
@@ -4778,7 +4845,7 @@
         <v>22</v>
       </c>
       <c r="AN24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,13 +4857,13 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS24" t="n">
         <v>16</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU24" t="n">
         <v>18</v>
@@ -4805,16 +4872,16 @@
         <v>3</v>
       </c>
       <c r="AW24" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AX24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" t="n">
         <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" t="n">
-        <v>0.333</v>
+        <v>0.343</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
@@ -4870,40 +4937,40 @@
         <v>37.9</v>
       </c>
       <c r="J25" t="n">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L25" t="n">
         <v>6.1</v>
       </c>
       <c r="M25" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.329</v>
+        <v>0.333</v>
       </c>
       <c r="O25" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="P25" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.751</v>
+        <v>0.749</v>
       </c>
       <c r="R25" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S25" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="T25" t="n">
-        <v>40.1</v>
+        <v>39.8</v>
       </c>
       <c r="U25" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V25" t="n">
         <v>13.7</v>
@@ -4915,28 +4982,28 @@
         <v>5.7</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA25" t="n">
         <v>18.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>96.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>24</v>
       </c>
       <c r="AF25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG25" t="n">
         <v>26</v>
@@ -4960,28 +5027,28 @@
         <v>20</v>
       </c>
       <c r="AN25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO25" t="n">
         <v>26</v>
       </c>
       <c r="AP25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR25" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AS25" t="n">
         <v>28</v>
       </c>
       <c r="AT25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV25" t="n">
         <v>4</v>
@@ -4993,7 +5060,7 @@
         <v>9</v>
       </c>
       <c r="AY25" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ25" t="n">
         <v>20</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>-1.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
         <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
         <v>3</v>
@@ -5142,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO26" t="n">
         <v>22</v>
@@ -5157,7 +5224,7 @@
         <v>14</v>
       </c>
       <c r="AS26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT26" t="n">
         <v>22</v>
@@ -5169,16 +5236,16 @@
         <v>13</v>
       </c>
       <c r="AW26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA26" t="n">
         <v>23</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>21</v>
@@ -5324,7 +5391,7 @@
         <v>16</v>
       </c>
       <c r="AN27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO27" t="n">
         <v>14</v>
@@ -5333,7 +5400,7 @@
         <v>15</v>
       </c>
       <c r="AQ27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -5482,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG28" t="n">
         <v>3</v>
@@ -5509,7 +5576,7 @@
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
         <v>20</v>
@@ -5524,28 +5591,28 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY28" t="n">
         <v>14</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>24</v>
@@ -5673,7 +5740,7 @@
         <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ29" t="n">
         <v>19</v>
@@ -5688,10 +5755,10 @@
         <v>6</v>
       </c>
       <c r="AN29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP29" t="n">
         <v>13</v>
@@ -5709,7 +5776,7 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -5849,10 +5916,10 @@
         <v>18</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI30" t="n">
         <v>19</v>
@@ -5864,7 +5931,7 @@
         <v>18</v>
       </c>
       <c r="AL30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-8</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6076,16 +6143,16 @@
         <v>23</v>
       </c>
       <c r="AV31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX31" t="n">
         <v>23</v>
       </c>
       <c r="AY31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ31" t="n">
         <v>22</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-8-2012-13</t>
+          <t>2013-01-08</t>
         </is>
       </c>
     </row>
